--- a/docs/StructureDefinition-Questionnaire.xlsx
+++ b/docs/StructureDefinition-Questionnaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T08:09:55+00:00</t>
+    <t>2024-03-01T08:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Questionnaire.xlsx
+++ b/docs/StructureDefinition-Questionnaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T08:53:42+00:00</t>
+    <t>2024-03-04T08:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Will include UK Core if required</t>
+    <t>Based on FHIR Structured Data Capture</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-Questionnaire.xlsx
+++ b/docs/StructureDefinition-Questionnaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T08:45:19+00:00</t>
+    <t>2024-03-09T08:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Questionnaire.xlsx
+++ b/docs/StructureDefinition-Questionnaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-09T08:46:02+00:00</t>
+    <t>2024-04-02T05:59:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
